--- a/store/layout/report/Date_Wise_Receive.xlsx
+++ b/store/layout/report/Date_Wise_Receive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>PO No</t>
   </si>
@@ -38,10 +38,7 @@
     <t>Size</t>
   </si>
   <si>
-    <t>item_price</t>
-  </si>
-  <si>
-    <t>Purchase Price</t>
+    <t>Issue Price</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -53,7 +50,85 @@
     <t>Total Price</t>
   </si>
   <si>
-    <t>Purchase by</t>
+    <t>asktest17dec</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>2025-12-17 09:05:18.000</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>Ball Pen (Black)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>dec17test1</t>
+  </si>
+  <si>
+    <t>2025-12-17 11:12:49.690</t>
+  </si>
+  <si>
+    <t>dec17test2</t>
+  </si>
+  <si>
+    <t>2025-12-17 11:19:56.563</t>
+  </si>
+  <si>
+    <t>ask12345</t>
+  </si>
+  <si>
+    <t>2025-12-17 11:21:01.847</t>
+  </si>
+  <si>
+    <t>adsdasd123</t>
+  </si>
+  <si>
+    <t>2025-12-17 13:35:51.383</t>
+  </si>
+  <si>
+    <t>2025-12-17 11:12:49.713</t>
+  </si>
+  <si>
+    <t>Ball Pen (rad)</t>
+  </si>
+  <si>
+    <t>2025-12-17 11:12:49.733</t>
+  </si>
+  <si>
+    <t>Ball Pen Green</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2025-12-17 11:21:01.870</t>
+  </si>
+  <si>
+    <t>Fluid Pen</t>
+  </si>
+  <si>
+    <t>2025-12-17 11:19:56.583</t>
+  </si>
+  <si>
+    <t>2025-12-17 13:35:51.407</t>
+  </si>
+  <si>
+    <t>2025-12-17 13:35:51.433</t>
+  </si>
+  <si>
+    <t>Gel Pen</t>
   </si>
 </sst>
 </file>
@@ -393,7 +468,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,7 +476,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,11 +510,390 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>5.0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>5.0</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>5.0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>5.0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>5.0</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>5.0</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>4.5</v>
+      </c>
+      <c r="I8">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>116.0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>232.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>116.0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>232.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11">
+        <v>116.0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>348.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>9.0</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>72.0</v>
       </c>
     </row>
   </sheetData>
